--- a/po_analysis_by_asin/B0C82C1PWN_po_data.xlsx
+++ b/po_analysis_by_asin/B0C82C1PWN_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,23 +452,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45460</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45481</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>220</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45495</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>20</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45502</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>20</v>
@@ -484,9 +484,81 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45523</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B15" t="n">
         <v>260</v>
       </c>
     </row>
@@ -501,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,25 +595,49 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45444</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45474</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>260</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45505</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B4" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B7" t="n">
         <v>260</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C82C1PWN_po_data.xlsx
+++ b/po_analysis_by_asin/B0C82C1PWN_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,113 +452,81 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45102.99999999999</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45116.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45158.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45165.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45172.99999999999</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45487.99999999999</v>
-      </c>
-      <c r="B12" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45501.99999999999</v>
-      </c>
-      <c r="B13" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45508.99999999999</v>
-      </c>
-      <c r="B14" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45529.99999999999</v>
-      </c>
-      <c r="B15" t="n">
         <v>260</v>
       </c>
     </row>
@@ -573,7 +541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,15 +563,15 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45107.99999999999</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45138.99999999999</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>80</v>
@@ -611,33 +579,25 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45169.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45504.99999999999</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45535.99999999999</v>
-      </c>
-      <c r="B7" t="n">
         <v>260</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C82C1PWN_po_data.xlsx
+++ b/po_analysis_by_asin/B0C82C1PWN_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -557,7 +558,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -599,6 +600,299 @@
       </c>
       <c r="B6" t="n">
         <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-77.84095816398604</v>
+      </c>
+      <c r="D2" t="n">
+        <v>105.8628152758877</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-74.83901691013355</v>
+      </c>
+      <c r="D3" t="n">
+        <v>104.5728433802946</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-74.89371793936591</v>
+      </c>
+      <c r="D4" t="n">
+        <v>110.1458320137991</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>21</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-72.96424173472849</v>
+      </c>
+      <c r="D5" t="n">
+        <v>109.5789482670745</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-66.15041180180701</v>
+      </c>
+      <c r="D6" t="n">
+        <v>116.5777958317823</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>108</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.900706407383025</v>
+      </c>
+      <c r="D7" t="n">
+        <v>201.7306004138291</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>114</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15.65196986495716</v>
+      </c>
+      <c r="D8" t="n">
+        <v>201.9597997029096</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>118</v>
+      </c>
+      <c r="C9" t="n">
+        <v>23.64146117427979</v>
+      </c>
+      <c r="D9" t="n">
+        <v>209.8893595568858</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>120</v>
+      </c>
+      <c r="C10" t="n">
+        <v>28.02318653210956</v>
+      </c>
+      <c r="D10" t="n">
+        <v>206.9247607552477</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>126</v>
+      </c>
+      <c r="C11" t="n">
+        <v>35.76787096848312</v>
+      </c>
+      <c r="D11" t="n">
+        <v>215.7557259483727</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>128</v>
+      </c>
+      <c r="C12" t="n">
+        <v>30.01866262249658</v>
+      </c>
+      <c r="D12" t="n">
+        <v>222.4486187696066</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>130</v>
+      </c>
+      <c r="C13" t="n">
+        <v>35.84410082222061</v>
+      </c>
+      <c r="D13" t="n">
+        <v>222.8377147738892</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>132</v>
+      </c>
+      <c r="C14" t="n">
+        <v>43.34061650252514</v>
+      </c>
+      <c r="D14" t="n">
+        <v>225.4078232542352</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>135</v>
+      </c>
+      <c r="C15" t="n">
+        <v>45.29370161967881</v>
+      </c>
+      <c r="D15" t="n">
+        <v>223.3086020326581</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>137</v>
+      </c>
+      <c r="C16" t="n">
+        <v>47.9700434750296</v>
+      </c>
+      <c r="D16" t="n">
+        <v>229.4354395778672</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>139</v>
+      </c>
+      <c r="C17" t="n">
+        <v>46.31519248058231</v>
+      </c>
+      <c r="D17" t="n">
+        <v>230.0188412251592</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>141</v>
+      </c>
+      <c r="C18" t="n">
+        <v>45.23232604621796</v>
+      </c>
+      <c r="D18" t="n">
+        <v>229.1500347561039</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>143</v>
+      </c>
+      <c r="C19" t="n">
+        <v>45.5037430853649</v>
+      </c>
+      <c r="D19" t="n">
+        <v>235.113534759177</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C82C1PWN_po_data.xlsx
+++ b/po_analysis_by_asin/B0C82C1PWN_po_data.xlsx
@@ -613,7 +613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,16 +632,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -650,12 +640,6 @@
       <c r="B2" t="n">
         <v>13</v>
       </c>
-      <c r="C2" t="n">
-        <v>-77.84095816398604</v>
-      </c>
-      <c r="D2" t="n">
-        <v>105.8628152758877</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -664,12 +648,6 @@
       <c r="B3" t="n">
         <v>15</v>
       </c>
-      <c r="C3" t="n">
-        <v>-74.83901691013355</v>
-      </c>
-      <c r="D3" t="n">
-        <v>104.5728433802946</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -678,12 +656,6 @@
       <c r="B4" t="n">
         <v>19</v>
       </c>
-      <c r="C4" t="n">
-        <v>-74.89371793936591</v>
-      </c>
-      <c r="D4" t="n">
-        <v>110.1458320137991</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -692,12 +664,6 @@
       <c r="B5" t="n">
         <v>21</v>
       </c>
-      <c r="C5" t="n">
-        <v>-72.96424173472849</v>
-      </c>
-      <c r="D5" t="n">
-        <v>109.5789482670745</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -706,12 +672,6 @@
       <c r="B6" t="n">
         <v>23</v>
       </c>
-      <c r="C6" t="n">
-        <v>-66.15041180180701</v>
-      </c>
-      <c r="D6" t="n">
-        <v>116.5777958317823</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -720,12 +680,6 @@
       <c r="B7" t="n">
         <v>108</v>
       </c>
-      <c r="C7" t="n">
-        <v>9.900706407383025</v>
-      </c>
-      <c r="D7" t="n">
-        <v>201.7306004138291</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -734,12 +688,6 @@
       <c r="B8" t="n">
         <v>114</v>
       </c>
-      <c r="C8" t="n">
-        <v>15.65196986495716</v>
-      </c>
-      <c r="D8" t="n">
-        <v>201.9597997029096</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -748,12 +696,6 @@
       <c r="B9" t="n">
         <v>118</v>
       </c>
-      <c r="C9" t="n">
-        <v>23.64146117427979</v>
-      </c>
-      <c r="D9" t="n">
-        <v>209.8893595568858</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -762,12 +704,6 @@
       <c r="B10" t="n">
         <v>120</v>
       </c>
-      <c r="C10" t="n">
-        <v>28.02318653210956</v>
-      </c>
-      <c r="D10" t="n">
-        <v>206.9247607552477</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -776,12 +712,6 @@
       <c r="B11" t="n">
         <v>126</v>
       </c>
-      <c r="C11" t="n">
-        <v>35.76787096848312</v>
-      </c>
-      <c r="D11" t="n">
-        <v>215.7557259483727</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -790,12 +720,6 @@
       <c r="B12" t="n">
         <v>128</v>
       </c>
-      <c r="C12" t="n">
-        <v>30.01866262249658</v>
-      </c>
-      <c r="D12" t="n">
-        <v>222.4486187696066</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -804,12 +728,6 @@
       <c r="B13" t="n">
         <v>130</v>
       </c>
-      <c r="C13" t="n">
-        <v>35.84410082222061</v>
-      </c>
-      <c r="D13" t="n">
-        <v>222.8377147738892</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -818,12 +736,6 @@
       <c r="B14" t="n">
         <v>132</v>
       </c>
-      <c r="C14" t="n">
-        <v>43.34061650252514</v>
-      </c>
-      <c r="D14" t="n">
-        <v>225.4078232542352</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -832,12 +744,6 @@
       <c r="B15" t="n">
         <v>135</v>
       </c>
-      <c r="C15" t="n">
-        <v>45.29370161967881</v>
-      </c>
-      <c r="D15" t="n">
-        <v>223.3086020326581</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -846,12 +752,6 @@
       <c r="B16" t="n">
         <v>137</v>
       </c>
-      <c r="C16" t="n">
-        <v>47.9700434750296</v>
-      </c>
-      <c r="D16" t="n">
-        <v>229.4354395778672</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -860,12 +760,6 @@
       <c r="B17" t="n">
         <v>139</v>
       </c>
-      <c r="C17" t="n">
-        <v>46.31519248058231</v>
-      </c>
-      <c r="D17" t="n">
-        <v>230.0188412251592</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -874,12 +768,6 @@
       <c r="B18" t="n">
         <v>141</v>
       </c>
-      <c r="C18" t="n">
-        <v>45.23232604621796</v>
-      </c>
-      <c r="D18" t="n">
-        <v>229.1500347561039</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -887,12 +775,6 @@
       </c>
       <c r="B19" t="n">
         <v>143</v>
-      </c>
-      <c r="C19" t="n">
-        <v>45.5037430853649</v>
-      </c>
-      <c r="D19" t="n">
-        <v>235.113534759177</v>
       </c>
     </row>
   </sheetData>
